--- a/Graphene Oxide/Data/Liu_2012_GO_male_small_1_tissues.xlsx
+++ b/Graphene Oxide/Data/Liu_2012_GO_male_small_1_tissues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ioannis\Documents\GitHub\PBK_Grouping\Graphene Oxide\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eviepapakyriakopoulou/Documents/GitHub/PFAS_PBK_models/Graphene Oxide/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F181BC5B-B010-4A2A-84D5-56CBCAD27A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AD6BBA-B790-6447-84C8-64A6B8D8B76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="serum_male" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,12 +418,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -605,7 +599,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -966,22 +960,22 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +994,7 @@
       <c r="H1" s="1"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1019,7 +1013,7 @@
       <c r="H2" s="3"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1032,7 @@
       <c r="H3" s="3"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1051,7 @@
       <c r="H4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1075,7 +1069,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1093,7 +1087,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1105,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1129,7 +1123,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1137,7 +1131,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>9.9999999999999995E-7</v>
+        <v>0.01</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -1147,7 +1141,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1155,7 +1149,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>9.9999999999999995E-7</v>
+        <v>0.01</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -1165,7 +1159,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1173,7 +1167,7 @@
       <c r="E11" s="4"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>

--- a/Graphene Oxide/Data/Liu_2012_GO_male_small_1_tissues.xlsx
+++ b/Graphene Oxide/Data/Liu_2012_GO_male_small_1_tissues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eviepapakyriakopoulou/Documents/GitHub/PFAS_PBK_models/Graphene Oxide/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AD6BBA-B790-6447-84C8-64A6B8D8B76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860E7918-DDF4-EF41-A11A-56D70BBA49D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="serum_male" sheetId="1" r:id="rId1"/>
@@ -38,39 +38,12 @@
     <t>Tissue</t>
   </si>
   <si>
-    <t>Liver</t>
-  </si>
-  <si>
-    <t>Kidneys</t>
-  </si>
-  <si>
-    <t>Brain</t>
-  </si>
-  <si>
     <t>Dose_mg_per_kg</t>
   </si>
   <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>Spleen</t>
-  </si>
-  <si>
-    <t>Stomach</t>
-  </si>
-  <si>
-    <t>Lungs</t>
-  </si>
-  <si>
-    <t>Small_intestine</t>
-  </si>
-  <si>
-    <t>Large_intestine</t>
-  </si>
-  <si>
     <t>iv</t>
   </si>
   <si>
@@ -78,6 +51,33 @@
   </si>
   <si>
     <t>%ID</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>liver</t>
+  </si>
+  <si>
+    <t>spleen</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>kidneys</t>
+  </si>
+  <si>
+    <t>lungs</t>
+  </si>
+  <si>
+    <t>brain</t>
+  </si>
+  <si>
+    <t>small_intestine</t>
+  </si>
+  <si>
+    <t>large_intestine</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -960,7 +960,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="2"/>
@@ -1008,14 +1008,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>10</v>
@@ -1027,14 +1027,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H3" s="3"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4">
         <v>10</v>
@@ -1046,14 +1046,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H4" s="3"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4">
         <v>10</v>
@@ -1065,13 +1065,13 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
@@ -1083,13 +1083,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4">
         <v>10</v>
@@ -1101,13 +1101,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4">
         <v>10</v>
@@ -1119,13 +1119,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4">
         <v>10</v>
@@ -1137,13 +1137,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
         <v>10</v>
@@ -1155,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H10" s="3"/>
     </row>
